--- a/APP/API/Excel/plantillasEXCEL/products.xlsx
+++ b/APP/API/Excel/plantillasEXCEL/products.xlsx
@@ -44,8 +44,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -121,7 +122,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -130,7 +131,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -320,7 +333,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -329,33 +342,42 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="38.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="28.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F5" s="5"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
